--- a/data/pca/factorExposure/factorExposure_2012-09-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00130490870423217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001827044402673533</v>
+      </c>
+      <c r="C2">
+        <v>0.02828971927602172</v>
+      </c>
+      <c r="D2">
+        <v>0.00545045732687211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005620907326982571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007180666968436882</v>
+      </c>
+      <c r="C4">
+        <v>0.08317886305047503</v>
+      </c>
+      <c r="D4">
+        <v>0.07084527082515352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001834532718205474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01486786099928551</v>
+      </c>
+      <c r="C6">
+        <v>0.1158460013264544</v>
+      </c>
+      <c r="D6">
+        <v>0.0253394936700036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006009300535025613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005160634190075431</v>
+      </c>
+      <c r="C7">
+        <v>0.05799052964105155</v>
+      </c>
+      <c r="D7">
+        <v>0.03404603655540848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007107930480783313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005988370288645093</v>
+      </c>
+      <c r="C8">
+        <v>0.03565130333199968</v>
+      </c>
+      <c r="D8">
+        <v>0.03978893322055196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0009140460505688726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005262252957097971</v>
+      </c>
+      <c r="C9">
+        <v>0.07062951137312587</v>
+      </c>
+      <c r="D9">
+        <v>0.07616368994269379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002832564702234483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.0054412739011964</v>
+      </c>
+      <c r="C10">
+        <v>0.05554469003503902</v>
+      </c>
+      <c r="D10">
+        <v>-0.1931663895336993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001630423532563274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005761436293702328</v>
+      </c>
+      <c r="C11">
+        <v>0.07857215069362819</v>
+      </c>
+      <c r="D11">
+        <v>0.06648933985781272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000426372446258676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004399053510464383</v>
+      </c>
+      <c r="C12">
+        <v>0.06379456918307894</v>
+      </c>
+      <c r="D12">
+        <v>0.05250991254860857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003397119601625265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.00846140270568168</v>
+      </c>
+      <c r="C13">
+        <v>0.06718851894355859</v>
+      </c>
+      <c r="D13">
+        <v>0.0621000619688843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00143790441208828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000790656697723317</v>
+      </c>
+      <c r="C14">
+        <v>0.04168167769032653</v>
+      </c>
+      <c r="D14">
+        <v>0.01302006863093625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0002328372693212576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005924045477217024</v>
+      </c>
+      <c r="C15">
+        <v>0.03985118235179747</v>
+      </c>
+      <c r="D15">
+        <v>0.03064286318193515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0001853362726655842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005149902900288522</v>
+      </c>
+      <c r="C16">
+        <v>0.06361512479784631</v>
+      </c>
+      <c r="D16">
+        <v>0.05883631173269618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001877389881665764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008794690682378727</v>
+      </c>
+      <c r="C20">
+        <v>0.06277437510099297</v>
+      </c>
+      <c r="D20">
+        <v>0.05239648168895749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006542205265124884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009332607225061247</v>
+      </c>
+      <c r="C21">
+        <v>0.01901621001069761</v>
+      </c>
+      <c r="D21">
+        <v>0.04316695531724673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01967661293097259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007051069463419253</v>
+      </c>
+      <c r="C22">
+        <v>0.08664502817455823</v>
+      </c>
+      <c r="D22">
+        <v>0.1246407786052151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01934579182898713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00676350606946929</v>
+      </c>
+      <c r="C23">
+        <v>0.08701169262571228</v>
+      </c>
+      <c r="D23">
+        <v>0.1257872398808096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001333940120436341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005638327912756553</v>
+      </c>
+      <c r="C24">
+        <v>0.07534600022658565</v>
+      </c>
+      <c r="D24">
+        <v>0.0693575378428125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003304762607662719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003209013739722476</v>
+      </c>
+      <c r="C25">
+        <v>0.07689022698467111</v>
+      </c>
+      <c r="D25">
+        <v>0.06807815623269554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002763455014591088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003638100848590078</v>
+      </c>
+      <c r="C26">
+        <v>0.0382392257187581</v>
+      </c>
+      <c r="D26">
+        <v>0.02575471006473261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005661468006681446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001371031587445731</v>
+      </c>
+      <c r="C28">
+        <v>0.1047713561904155</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226429796967102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.000152353340519473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002732642078626133</v>
+      </c>
+      <c r="C29">
+        <v>0.04813127910917951</v>
+      </c>
+      <c r="D29">
+        <v>0.01164493018989794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003419552680547877</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00995109905803643</v>
+      </c>
+      <c r="C30">
+        <v>0.1411322267597437</v>
+      </c>
+      <c r="D30">
+        <v>0.1101359291406862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002447005983588135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006349902392029236</v>
+      </c>
+      <c r="C31">
+        <v>0.04288848032039067</v>
+      </c>
+      <c r="D31">
+        <v>0.03362673680774825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002388702976184688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003635855497910393</v>
+      </c>
+      <c r="C32">
+        <v>0.03974931669757112</v>
+      </c>
+      <c r="D32">
+        <v>0.02358336125211985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.0003510849972453067</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009188823094876305</v>
+      </c>
+      <c r="C33">
+        <v>0.08818772029083624</v>
+      </c>
+      <c r="D33">
+        <v>0.06684078799419994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002344939377425304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004309416367631169</v>
+      </c>
+      <c r="C34">
+        <v>0.05719528212882935</v>
+      </c>
+      <c r="D34">
+        <v>0.05935330069842434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001558667164284785</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005372749078109404</v>
+      </c>
+      <c r="C35">
+        <v>0.03986335588526307</v>
+      </c>
+      <c r="D35">
+        <v>0.02188673751524545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005032400233466419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001540350036448589</v>
+      </c>
+      <c r="C36">
+        <v>0.0238666085504821</v>
+      </c>
+      <c r="D36">
+        <v>0.02788011617234835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001727055888678137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009240471252785832</v>
+      </c>
+      <c r="C38">
+        <v>0.03914738967682151</v>
+      </c>
+      <c r="D38">
+        <v>0.01449129419015126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01071253277093902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001177250042658039</v>
+      </c>
+      <c r="C39">
+        <v>0.1124928287587264</v>
+      </c>
+      <c r="D39">
+        <v>0.07844677069026995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.005172927305364911</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003946140594993629</v>
+      </c>
+      <c r="C40">
+        <v>0.09047388832670075</v>
+      </c>
+      <c r="D40">
+        <v>0.01764823201360247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007895052110351273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007332509612133357</v>
+      </c>
+      <c r="C41">
+        <v>0.03913435424179317</v>
+      </c>
+      <c r="D41">
+        <v>0.04046756740709206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002307216953200993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003902038465580748</v>
+      </c>
+      <c r="C43">
+        <v>0.05255247003429903</v>
+      </c>
+      <c r="D43">
+        <v>0.02909561163992534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01041026094174961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002637733961550345</v>
+      </c>
+      <c r="C44">
+        <v>0.103357001763619</v>
+      </c>
+      <c r="D44">
+        <v>0.06914987808958686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0006868371702412752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001604180138056342</v>
+      </c>
+      <c r="C46">
+        <v>0.03284482806715494</v>
+      </c>
+      <c r="D46">
+        <v>0.03571563766630839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0006399518145462806</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002280118760643753</v>
+      </c>
+      <c r="C47">
+        <v>0.03501121872623478</v>
+      </c>
+      <c r="D47">
+        <v>0.02328742520700813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.0034815815371558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006632899580647565</v>
+      </c>
+      <c r="C48">
+        <v>0.02974085260869675</v>
+      </c>
+      <c r="D48">
+        <v>0.03787050521777639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0009814252535080106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01807483852732673</v>
+      </c>
+      <c r="C49">
+        <v>0.1904074411149339</v>
+      </c>
+      <c r="D49">
+        <v>0.006406945326549555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003307265927927614</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003574924540850461</v>
+      </c>
+      <c r="C50">
+        <v>0.04198103486594295</v>
+      </c>
+      <c r="D50">
+        <v>0.04056401743046022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0002503298041796634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004754522609857957</v>
+      </c>
+      <c r="C51">
+        <v>0.02662619290647022</v>
+      </c>
+      <c r="D51">
+        <v>0.0222397029091186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.005496674907285457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02167332429157121</v>
+      </c>
+      <c r="C53">
+        <v>0.1710631979528234</v>
+      </c>
+      <c r="D53">
+        <v>0.02228852694904304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003370385729079176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009258987611721581</v>
+      </c>
+      <c r="C54">
+        <v>0.05442343996781906</v>
+      </c>
+      <c r="D54">
+        <v>0.04466855873472823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.0001430173046771015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009862712409346898</v>
+      </c>
+      <c r="C55">
+        <v>0.1074929138005722</v>
+      </c>
+      <c r="D55">
+        <v>0.03906013568214835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007280684437945587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02083070206137233</v>
+      </c>
+      <c r="C56">
+        <v>0.1746519696668075</v>
+      </c>
+      <c r="D56">
+        <v>0.01458903764140106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.0009193340491724154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01929571114339059</v>
+      </c>
+      <c r="C58">
+        <v>0.1036427408776687</v>
+      </c>
+      <c r="D58">
+        <v>0.07309859846626934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.004402670067960852</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01055500899622842</v>
+      </c>
+      <c r="C59">
+        <v>0.1693119396223507</v>
+      </c>
+      <c r="D59">
+        <v>-0.3416398517892495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002829216031938069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02542229166629362</v>
+      </c>
+      <c r="C60">
+        <v>0.2269522747890913</v>
+      </c>
+      <c r="D60">
+        <v>0.01704502027118474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009788263661325208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001700870516267925</v>
+      </c>
+      <c r="C61">
+        <v>0.09396300213563018</v>
+      </c>
+      <c r="D61">
+        <v>0.05849957145027951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1536638956985765</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1497849798143183</v>
+      </c>
+      <c r="C62">
+        <v>0.09790970164047887</v>
+      </c>
+      <c r="D62">
+        <v>0.02219663552663719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0001899758857589548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006495137066385864</v>
+      </c>
+      <c r="C63">
+        <v>0.0522602211367682</v>
+      </c>
+      <c r="D63">
+        <v>0.03541369108984297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005776112694703501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01601684538413714</v>
+      </c>
+      <c r="C64">
+        <v>0.1055101546788126</v>
+      </c>
+      <c r="D64">
+        <v>0.05569981734546584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.004632596746506578</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01785424446987096</v>
+      </c>
+      <c r="C65">
+        <v>0.1211204695994417</v>
+      </c>
+      <c r="D65">
+        <v>0.02971682627904795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002008669013038668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0135005883016384</v>
+      </c>
+      <c r="C66">
+        <v>0.160302121559652</v>
+      </c>
+      <c r="D66">
+        <v>0.1102070017406889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004192506576769318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01573920085497727</v>
+      </c>
+      <c r="C67">
+        <v>0.0715199461614044</v>
+      </c>
+      <c r="D67">
+        <v>0.02481005255677145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00363281463845625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001243953338331048</v>
+      </c>
+      <c r="C68">
+        <v>0.08715827801593036</v>
+      </c>
+      <c r="D68">
+        <v>-0.2566864469486961</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0005460712438698961</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006676724112553481</v>
+      </c>
+      <c r="C69">
+        <v>0.05242510768048324</v>
+      </c>
+      <c r="D69">
+        <v>0.03774668547638538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001304234695872575</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.00235277845938635</v>
+      </c>
+      <c r="C70">
+        <v>0.007356108153059294</v>
+      </c>
+      <c r="D70">
+        <v>0.001403495970321191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001492527343361444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005820036781599954</v>
+      </c>
+      <c r="C71">
+        <v>0.09156811394517891</v>
+      </c>
+      <c r="D71">
+        <v>-0.3007284094077778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0003659015845524294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01724699239678794</v>
+      </c>
+      <c r="C72">
+        <v>0.1567873839992257</v>
+      </c>
+      <c r="D72">
+        <v>0.01046652581629272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-8.7413059718555e-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03207042401071115</v>
+      </c>
+      <c r="C73">
+        <v>0.2826960939349748</v>
+      </c>
+      <c r="D73">
+        <v>0.05324237170548465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00514185243747405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00212362153915528</v>
+      </c>
+      <c r="C74">
+        <v>0.1021367031619562</v>
+      </c>
+      <c r="D74">
+        <v>0.0357704381987455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001743594006800333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01107808792235208</v>
+      </c>
+      <c r="C75">
+        <v>0.1211154872093527</v>
+      </c>
+      <c r="D75">
+        <v>0.02567259366508289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.011533173949341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0226144852152034</v>
+      </c>
+      <c r="C76">
+        <v>0.1467133499261891</v>
+      </c>
+      <c r="D76">
+        <v>0.05813615857800213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001434127477081137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02104552463284085</v>
+      </c>
+      <c r="C77">
+        <v>0.1142592801437417</v>
+      </c>
+      <c r="D77">
+        <v>0.05564048836405614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003057429974490338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01481282464549312</v>
+      </c>
+      <c r="C78">
+        <v>0.09653083678267184</v>
+      </c>
+      <c r="D78">
+        <v>0.08232499686398796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02511269788998508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0387606248868</v>
+      </c>
+      <c r="C79">
+        <v>0.1557653218144513</v>
+      </c>
+      <c r="D79">
+        <v>0.03375163684539335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006604385425210585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01006620564166689</v>
+      </c>
+      <c r="C80">
+        <v>0.03848494614207223</v>
+      </c>
+      <c r="D80">
+        <v>0.03014267458353687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004671094170589018</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01609560046101458</v>
+      </c>
+      <c r="C81">
+        <v>0.1287386410220094</v>
+      </c>
+      <c r="D81">
+        <v>0.03801029865387034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006943528262533406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02008048218579854</v>
+      </c>
+      <c r="C82">
+        <v>0.1388737529007883</v>
+      </c>
+      <c r="D82">
+        <v>0.03760731720270073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.0001137785541865221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01239505064709819</v>
+      </c>
+      <c r="C83">
+        <v>0.06416037699586212</v>
+      </c>
+      <c r="D83">
+        <v>0.04313162534043871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01093095448807498</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01251701557605549</v>
+      </c>
+      <c r="C84">
+        <v>0.03827155537696649</v>
+      </c>
+      <c r="D84">
+        <v>-0.003465172375696096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01672231823265571</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02938446274063663</v>
+      </c>
+      <c r="C85">
+        <v>0.123512049065494</v>
+      </c>
+      <c r="D85">
+        <v>0.03795829039394518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002305866274594194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004521164923304312</v>
+      </c>
+      <c r="C86">
+        <v>0.04917043256658278</v>
+      </c>
+      <c r="D86">
+        <v>0.02917928800330804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0010709059270916</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01152998283450546</v>
+      </c>
+      <c r="C87">
+        <v>0.1264063394793207</v>
+      </c>
+      <c r="D87">
+        <v>0.07739296473759855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009345658054796872</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002837557106433504</v>
+      </c>
+      <c r="C88">
+        <v>0.06307987406818173</v>
+      </c>
+      <c r="D88">
+        <v>0.02699768563273738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.008885356377863671</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001549978057321917</v>
+      </c>
+      <c r="C89">
+        <v>0.1394163154327448</v>
+      </c>
+      <c r="D89">
+        <v>-0.3164617034896214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001195011985181445</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006837051506995414</v>
+      </c>
+      <c r="C90">
+        <v>0.1205960085779147</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120931384899675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008291079704812961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01075190412388924</v>
+      </c>
+      <c r="C91">
+        <v>0.09899248217624625</v>
+      </c>
+      <c r="D91">
+        <v>0.02478610346485689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006504719745485219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006980157183321062</v>
+      </c>
+      <c r="C92">
+        <v>0.1342470327147463</v>
+      </c>
+      <c r="D92">
+        <v>-0.3230135345922743</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005632811390970523</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004286133831420148</v>
+      </c>
+      <c r="C93">
+        <v>0.1051451551546165</v>
+      </c>
+      <c r="D93">
+        <v>-0.2974522411485574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.005826417869625555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02229459793177541</v>
+      </c>
+      <c r="C94">
+        <v>0.1426007051462662</v>
+      </c>
+      <c r="D94">
+        <v>0.05334715174566368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0003151709141979299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01660767942634862</v>
+      </c>
+      <c r="C95">
+        <v>0.1201543401470813</v>
+      </c>
+      <c r="D95">
+        <v>0.06642388463171464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.009661007934336864</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0371326186441888</v>
+      </c>
+      <c r="C97">
+        <v>0.2257598949634422</v>
+      </c>
+      <c r="D97">
+        <v>0.003164427815307444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.007273167498783462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03870142528107368</v>
+      </c>
+      <c r="C98">
+        <v>0.2581189222253567</v>
+      </c>
+      <c r="D98">
+        <v>0.0310480191318274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864775887745614</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9809980874879339</v>
+      </c>
+      <c r="C99">
+        <v>-0.1219864515980331</v>
+      </c>
+      <c r="D99">
+        <v>-0.0238295671289257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0002177707867687027</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002774205951435212</v>
+      </c>
+      <c r="C101">
+        <v>0.04825520109719384</v>
+      </c>
+      <c r="D101">
+        <v>0.01202233893486701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
